--- a/documentation/tests/test-algebra-exam-questions-page.xlsx
+++ b/documentation/tests/test-algebra-exam-questions-page.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="34">
   <si>
     <t xml:space="preserve">Test  ID</t>
   </si>
@@ -79,87 +79,13 @@
     <t xml:space="preserve">Test Comments</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Navigate to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Algebra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> exam questions page</t>
-    </r>
+    <t xml:space="preserve">Navigate to Algebra exam questions page</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://liz-conway.github.io/a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lgebra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-exam-questions.html</t>
-    </r>
+    <t xml:space="preserve">https://liz-conway.github.io/algebra-exam-questions.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Algebra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> exam questions page displays</t>
-    </r>
+    <t xml:space="preserve">Algebra exam questions page displays</t>
   </si>
   <si>
     <t xml:space="preserve">Navigation Menu appears in top right – HOME, MATHS, ABOUT, CONTACT US</t>
@@ -168,25 +94,7 @@
     <t xml:space="preserve">Heading displays – EXAM QUESTIONS – ALGEBRA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Algebra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> exam questions are displayed</t>
-    </r>
+    <t xml:space="preserve">Algebra exam questions are displayed</t>
   </si>
   <si>
     <t xml:space="preserve">Footer appears at bottom of page</t>
@@ -227,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -257,12 +165,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -410,7 +312,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -511,15 +413,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,10 +422,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -655,7 +545,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -784,38 +674,42 @@
       <c r="D6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27" t="str">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="str">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
@@ -826,53 +720,59 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27" t="str">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27" t="str">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="n">
@@ -885,19 +785,21 @@
       <c r="D11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27" t="str">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -910,19 +812,21 @@
       <c r="D12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="str">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
@@ -939,62 +843,62 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="11"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -1055,38 +959,42 @@
       <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="str">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27" t="str">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
@@ -1097,53 +1005,59 @@
         <v>22</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27" t="str">
+      <c r="G22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27" t="str">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27" t="str">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
@@ -1156,19 +1070,21 @@
       <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27" t="str">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
@@ -1181,19 +1097,21 @@
       <c r="D26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27" t="str">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1324,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1432,10 +1350,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="40"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1452,38 +1370,42 @@
       <c r="D6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27" t="str">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="str">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
@@ -1494,53 +1416,59 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27" t="str">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27" t="str">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="n">
@@ -1553,19 +1481,21 @@
       <c r="D11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27" t="str">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -1578,80 +1508,82 @@
       <c r="D12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="str">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31"/>
+      <c r="A13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="11"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -1692,10 +1624,10 @@
         <v>15</v>
       </c>
       <c r="H19" s="20"/>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="40"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="18" t="s">
         <v>17</v>
       </c>
@@ -1712,38 +1644,42 @@
       <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="str">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27" t="str">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
@@ -1754,53 +1690,59 @@
         <v>22</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27" t="str">
+      <c r="G22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27" t="str">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27" t="str">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
@@ -1813,19 +1755,21 @@
       <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27" t="str">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
@@ -1838,19 +1782,21 @@
       <c r="D26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27" t="str">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1985,8 +1931,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2093,10 +2039,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="40"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
@@ -2113,38 +2059,42 @@
       <c r="D6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27" t="str">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="str">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
@@ -2155,53 +2105,59 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27" t="str">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27" t="str">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="n">
@@ -2214,19 +2170,21 @@
       <c r="D11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27" t="str">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -2239,19 +2197,21 @@
       <c r="D12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="str">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
@@ -2268,62 +2228,62 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="11"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -2364,10 +2324,10 @@
         <v>15</v>
       </c>
       <c r="H19" s="20"/>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="40"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2384,38 +2344,42 @@
       <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="str">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27" t="str">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
@@ -2426,53 +2390,59 @@
         <v>22</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27" t="str">
+      <c r="G22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27" t="str">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27" t="str">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
@@ -2485,19 +2455,21 @@
       <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27" t="str">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
@@ -2510,19 +2482,21 @@
       <c r="D26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27" t="str">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2657,8 +2631,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2765,10 +2739,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="40"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
@@ -2785,38 +2759,42 @@
       <c r="D6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27" t="str">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="str">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22"/>
@@ -2827,53 +2805,59 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27" t="str">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27" t="str">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="n">
@@ -2886,19 +2870,21 @@
       <c r="D11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27" t="str">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -2911,19 +2897,21 @@
       <c r="D12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="str">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
@@ -2940,62 +2928,62 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="11"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -3036,10 +3024,10 @@
         <v>15</v>
       </c>
       <c r="H19" s="20"/>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="40"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="18" t="s">
         <v>17</v>
       </c>
@@ -3056,38 +3044,42 @@
       <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="str">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27" t="str">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
@@ -3098,53 +3090,59 @@
         <v>22</v>
       </c>
       <c r="F22" s="16"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27" t="str">
+      <c r="G22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="25" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27" t="str">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27" t="str">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
@@ -3157,19 +3155,21 @@
       <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27" t="str">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
@@ -3182,19 +3182,21 @@
       <c r="D26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27" t="str">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
